--- a/xlsx/运筹学_intext.xlsx
+++ b/xlsx/运筹学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>运筹学</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E6%95%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用數學</t>
+    <t>应用数学</t>
   </si>
   <si>
     <t>政策_政策_管理_运筹学</t>
@@ -59,9 +59,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E6%95%B0%E5%AD%A6</t>
   </si>
   <si>
-    <t>应用数学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
@@ -77,7 +74,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%97%E7%B1%8C</t>
   </si>
   <si>
-    <t>算籌</t>
+    <t>算筹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E9%AB%98%E7%A5%96</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>微觀經濟學</t>
+    <t>微观经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6%E7%9B%B8%E5%85%B3%E4%B8%BB%E9%A2%98%E5%88%97%E8%A1%A8</t>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E5%93%81_(%E7%B6%93%E6%BF%9F%E5%AD%B8)</t>
   </si>
   <si>
-    <t>物品 (經濟學)</t>
+    <t>物品 (经济学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B4%B9%E7%89%A9%E5%93%81</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>私有財產</t>
+    <t>私有财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%89%A9%E5%93%81</t>
@@ -227,13 +224,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9D%9F%E6%A5%B5%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>約束極大化</t>
+    <t>约束极大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%9C%83%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>機會成本</t>
+    <t>机会成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E6%B2%A1%E6%88%90%E6%9C%AC</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E5%92%8C%E9%9C%80%E6%B1%82</t>
   </si>
   <si>
-    <t>供給和需求</t>
+    <t>供给和需求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99%E6%9B%B2%E7%BA%BF</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>需求曲線</t>
+    <t>需求曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E6%80%A7_(%E7%BB%8F%E6%B5%8E%E5%AD%A6)</t>
@@ -281,13 +278,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9D%87%E8%A1%A1</t>
   </si>
   <si>
-    <t>經濟均衡</t>
+    <t>经济均衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%9F%AD%E7%BC%BA</t>
   </si>
   <si>
-    <t>經濟短缺</t>
+    <t>经济短缺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Excess_supply</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E8%88%AC%E5%9D%87%E8%A1%A1%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>一般均衡理論</t>
+    <t>一般均衡理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E5%A5%BD</t>
@@ -317,13 +314,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E5%84%AA%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等優曲線</t>
+    <t>等优曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E7%AE%97%E7%B7%9A</t>
   </si>
   <si>
-    <t>預算線</t>
+    <t>预算线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Income%E2%80%93consumption_curve</t>
@@ -335,13 +332,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%A2%BA%E5%AE%9A%E6%80%A7</t>
   </si>
   <si>
-    <t>不確定性</t>
+    <t>不确定性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E5%8E%AD%E6%83%A1</t>
   </si>
   <si>
-    <t>風險厭惡</t>
+    <t>风险厌恶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%9F%E5%A4%B1%E8%A7%84%E9%81%BF</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC%E9%81%9E%E6%B8%9B</t>
   </si>
   <si>
-    <t>報酬遞減</t>
+    <t>报酬递减</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E6%88%90%E6%9C%AC</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E5%8B%95%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>變動成本</t>
+    <t>变动成本</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Average_cost</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E9%9A%9B%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>邊際成本</t>
+    <t>边际成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -413,19 +410,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%94%A2%E9%87%8F%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等產量曲線</t>
+    <t>等产量曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%BD%A4%E6%9C%80%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>利潤最大化</t>
+    <t>利润最大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E6%A8%A1%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>規模經濟</t>
+    <t>规模经济</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Economies_of_scope</t>
@@ -437,25 +434,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E6%A0%BC</t>
   </si>
   <si>
-    <t>價格</t>
+    <t>价格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%89%A9%E9%A4%98</t>
   </si>
   <si>
-    <t>經濟剩餘</t>
+    <t>经济剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>消费者剩余</t>
+    <t>消费者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>生产者剩余</t>
+    <t>生产者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E8%B0%93%E6%8D%9F%E5%A4%B1</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E5%A4%B1%E9%9D%88</t>
   </si>
   <si>
-    <t>市場失靈</t>
+    <t>市场失灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%83%A8%E6%80%A7</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%A3%E6%96%B9%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>賣方壟斷</t>
+    <t>卖方垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B0%E6%96%B9%E5%9E%84%E6%96%AD</t>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>寡頭壟斷</t>
+    <t>寡头垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E5%A4%B4%E5%9E%84%E6%96%AD</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為經濟學</t>
+    <t>行为经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -545,19 +542,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算經濟學</t>
+    <t>计算经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96%E8%AB%96</t>
   </si>
   <si>
-    <t>決策論</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E9%87%8F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計量經濟學</t>
+    <t>计量经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E9%AA%8C%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -569,15 +563,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>家庭經濟學</t>
+    <t>家庭经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AB%96</t>
   </si>
   <si>
-    <t>博弈論</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A%E7%BB%84%E7%BB%87%E7%90%86%E8%AE%BA</t>
   </si>
   <si>
@@ -587,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>勞動經濟學</t>
+    <t>劳动经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Managerial_economics</t>
@@ -599,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%90%86%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>數理經濟學</t>
+    <t>数理经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Microfoundations</t>
@@ -611,13 +602,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>福利經濟學</t>
+    <t>福利经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1177,7 +1168,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1203,10 +1194,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1232,10 +1223,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1261,10 +1252,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1290,10 +1281,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1319,10 +1310,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1348,10 +1339,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1377,10 +1368,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -1406,10 +1397,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1435,10 +1426,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1464,10 +1455,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1493,10 +1484,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1522,10 +1513,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1551,10 +1542,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1580,10 +1571,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1609,10 +1600,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1638,10 +1629,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1667,10 +1658,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1696,10 +1687,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1725,10 +1716,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -1754,10 +1745,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>12</v>
@@ -1783,10 +1774,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -1812,10 +1803,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1841,10 +1832,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1870,10 +1861,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -1899,10 +1890,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1928,10 +1919,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1957,10 +1948,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1986,10 +1977,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2015,10 +2006,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2044,10 +2035,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2073,10 +2064,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2102,10 +2093,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2131,10 +2122,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2160,10 +2151,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2189,10 +2180,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2218,10 +2209,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2247,10 +2238,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2276,10 +2267,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2305,10 +2296,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2334,10 +2325,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2363,10 +2354,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2392,10 +2383,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2421,10 +2412,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2450,10 +2441,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2479,10 +2470,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2508,10 +2499,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2537,10 +2528,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2566,10 +2557,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2595,10 +2586,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2624,10 +2615,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2653,10 +2644,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2682,10 +2673,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2711,10 +2702,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2740,10 +2731,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2769,10 +2760,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2798,10 +2789,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2827,10 +2818,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -2856,10 +2847,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2885,10 +2876,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2914,10 +2905,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2943,10 +2934,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2972,10 +2963,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3001,10 +2992,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3030,10 +3021,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3059,10 +3050,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3088,10 +3079,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3117,10 +3108,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3146,10 +3137,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3175,10 +3166,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3204,10 +3195,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3233,10 +3224,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3262,10 +3253,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3291,10 +3282,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3320,10 +3311,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3349,10 +3340,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3378,10 +3369,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3407,10 +3398,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3436,10 +3427,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3465,10 +3456,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3494,10 +3485,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3523,10 +3514,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3552,10 +3543,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3581,10 +3572,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3610,10 +3601,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3639,10 +3630,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3668,10 +3659,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3697,10 +3688,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3726,10 +3717,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3755,10 +3746,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3784,10 +3775,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3813,10 +3804,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3842,10 +3833,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3871,10 +3862,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -3900,10 +3891,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3929,10 +3920,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -3958,10 +3949,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
